--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/65.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/65.xlsx
@@ -479,13 +479,13 @@
         <v>0.0143675968145305</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.927902025079195</v>
+        <v>-1.934856234136193</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3931773063849093</v>
+        <v>0.3926648295050003</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2319466638819228</v>
+        <v>-0.2304749354062869</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.0544424437954274</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.941577565522691</v>
+        <v>-1.94842884118928</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3113868723802949</v>
+        <v>0.3113094898314767</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2126871695147462</v>
+        <v>-0.2100634630953833</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.0857940004557189</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.009228893814945</v>
+        <v>-2.018928723306898</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2859353140595745</v>
+        <v>0.2839394283193022</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2304544947330142</v>
+        <v>-0.2274102944634695</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.09657884119240161</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.075945791329019</v>
+        <v>-2.082053902517335</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2602457679000359</v>
+        <v>0.2600924628504905</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2367312414758307</v>
+        <v>-0.2340783340946495</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.08269231044219685</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.040782723131619</v>
+        <v>-2.049334224800071</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2487201482704026</v>
+        <v>0.2459489769938579</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2244799779450158</v>
+        <v>-0.2219643150843801</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.04600370265140446</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.908933810306154</v>
+        <v>-1.914698810193107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2619686246473081</v>
+        <v>0.2636097187014895</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2110869568071103</v>
+        <v>-0.2088881243822018</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.002972762558733812</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.636031111466091</v>
+        <v>-1.643343032305362</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2596106469804906</v>
+        <v>0.2620591476289445</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1833518832722086</v>
+        <v>-0.1848761734791173</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.0506577040663985</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.258391132800647</v>
+        <v>-1.266964535190463</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2429339776861315</v>
+        <v>0.2464614538737669</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1247192720374971</v>
+        <v>-0.1277853730284054</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.08392308724917595</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7695144702331421</v>
+        <v>-0.7804283297126846</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2684191171129428</v>
+        <v>0.2712632907940329</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02508267021770567</v>
+        <v>-0.02785968168661401</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.09313666427854182</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2338607869291041</v>
+        <v>-0.2461354112293736</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1654755063672432</v>
+        <v>0.1636124850032437</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06362693168972505</v>
+        <v>0.06028634165772595</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.0714447314095549</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4279512717660818</v>
+        <v>0.4231068322004467</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04340672567873049</v>
+        <v>0.04185761465427636</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1641848238548799</v>
+        <v>0.1589826725069722</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.01536273177188488</v>
       </c>
       <c r="E13" t="n">
-        <v>1.11555507998717</v>
+        <v>1.107518975294808</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1224707979774977</v>
+        <v>-0.1227409068743158</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2945101764974812</v>
+        <v>0.2912863903127548</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.07510996519155146</v>
       </c>
       <c r="E14" t="n">
-        <v>1.831349496747523</v>
+        <v>1.824458069758434</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3393361210644394</v>
+        <v>-0.3471488383988919</v>
       </c>
       <c r="G14" t="n">
-        <v>0.442995607294805</v>
+        <v>0.4375218870019883</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1991586039682826</v>
       </c>
       <c r="E15" t="n">
-        <v>2.53326761645188</v>
+        <v>2.529929946516063</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6117504338180936</v>
+        <v>-0.61850899643091</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6315724986203908</v>
+        <v>0.6258739309215741</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3542803606851453</v>
       </c>
       <c r="E16" t="n">
-        <v>3.200493533468156</v>
+        <v>3.202931813779973</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9327303262196438</v>
+        <v>-0.9367804996238245</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7862689739964401</v>
+        <v>0.7818946699160776</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5354657992540764</v>
       </c>
       <c r="E17" t="n">
-        <v>3.854037339824525</v>
+        <v>3.861289398692069</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.191252281388302</v>
+        <v>-1.196718701440664</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9854764754719321</v>
+        <v>0.9805648736941152</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7354205765375949</v>
       </c>
       <c r="E18" t="n">
-        <v>4.392811145898835</v>
+        <v>4.401410829154288</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.55329748639475</v>
+        <v>-1.556216122528476</v>
       </c>
       <c r="G18" t="n">
-        <v>1.184762819544333</v>
+        <v>1.179951961084789</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9446594548589132</v>
       </c>
       <c r="E19" t="n">
-        <v>4.918853332620421</v>
+        <v>4.930479695568327</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.833402602467266</v>
+        <v>-1.840128313998036</v>
       </c>
       <c r="G19" t="n">
-        <v>1.378375416735463</v>
+        <v>1.377763656585372</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.153284654707678</v>
       </c>
       <c r="E20" t="n">
-        <v>5.278781467895052</v>
+        <v>5.292916193463139</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.15524100314627</v>
+        <v>-2.160485495888814</v>
       </c>
       <c r="G20" t="n">
-        <v>1.588679283701861</v>
+        <v>1.587035269551498</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.352015129555024</v>
       </c>
       <c r="E21" t="n">
-        <v>5.589733750008241</v>
+        <v>5.603658228651238</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.467300731736414</v>
+        <v>-2.477461206401047</v>
       </c>
       <c r="G21" t="n">
-        <v>1.768342581432449</v>
+        <v>1.767665119118268</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.530239904383849</v>
       </c>
       <c r="E22" t="n">
-        <v>5.823588192680996</v>
+        <v>5.84191033617381</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.776994452395239</v>
+        <v>-2.787428686076919</v>
       </c>
       <c r="G22" t="n">
-        <v>1.89614497097396</v>
+        <v>1.895061615290506</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.677860434079084</v>
       </c>
       <c r="E23" t="n">
-        <v>5.970817982120139</v>
+        <v>5.993510049549042</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.028960061611672</v>
+        <v>-3.037972938476851</v>
       </c>
       <c r="G23" t="n">
-        <v>2.012221714297384</v>
+        <v>2.013894929409565</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.787158327813519</v>
       </c>
       <c r="E24" t="n">
-        <v>6.061259201063387</v>
+        <v>6.083669479210745</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.263238648254836</v>
+        <v>-3.271954405333516</v>
       </c>
       <c r="G24" t="n">
-        <v>2.115936230435083</v>
+        <v>2.116142097215901</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.854375994485481</v>
       </c>
       <c r="E25" t="n">
-        <v>6.07397329983902</v>
+        <v>6.097966270116923</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.438229792094516</v>
+        <v>-3.447038262226969</v>
       </c>
       <c r="G25" t="n">
-        <v>2.176091671828612</v>
+        <v>2.171891113471068</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.879866203206488</v>
       </c>
       <c r="E26" t="n">
-        <v>6.021599914770034</v>
+        <v>6.045570984326574</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.60282320345479</v>
+        <v>-3.612950827037379</v>
       </c>
       <c r="G26" t="n">
-        <v>2.202706888477787</v>
+        <v>2.198409966946243</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.86692453063237</v>
       </c>
       <c r="E27" t="n">
-        <v>5.921884470353334</v>
+        <v>5.9436829883506</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.689708475272631</v>
+        <v>-3.701951708538946</v>
       </c>
       <c r="G27" t="n">
-        <v>2.204241399021332</v>
+        <v>2.200700782400879</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.819820806902039</v>
       </c>
       <c r="E28" t="n">
-        <v>5.851553953814261</v>
+        <v>5.870893750826438</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.757265630463022</v>
+        <v>-3.768901483723519</v>
       </c>
       <c r="G28" t="n">
-        <v>2.213382760118511</v>
+        <v>2.208212729828604</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.744837814256425</v>
       </c>
       <c r="E29" t="n">
-        <v>5.657446400320314</v>
+        <v>5.674223812932945</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.79440268367933</v>
+        <v>-3.807728542605054</v>
       </c>
       <c r="G29" t="n">
-        <v>2.207094332990968</v>
+        <v>2.20682422409415</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.648831859200647</v>
       </c>
       <c r="E30" t="n">
-        <v>5.447987901198552</v>
+        <v>5.463113999420366</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.818229938498914</v>
+        <v>-3.83519788738741</v>
       </c>
       <c r="G30" t="n">
-        <v>2.161475130390525</v>
+        <v>2.161117418608253</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.539213306774463</v>
       </c>
       <c r="E31" t="n">
-        <v>5.170635705801445</v>
+        <v>5.18443024016435</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.713674434660851</v>
+        <v>-3.731695808246938</v>
       </c>
       <c r="G31" t="n">
-        <v>2.078690403636002</v>
+        <v>2.078763406040548</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.422935990425301</v>
       </c>
       <c r="E32" t="n">
-        <v>4.862918890257709</v>
+        <v>4.878066889200887</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.63200883476801</v>
+        <v>-3.650088610277732</v>
       </c>
       <c r="G32" t="n">
-        <v>1.930346597503497</v>
+        <v>1.933200991521223</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.305261437675685</v>
       </c>
       <c r="E33" t="n">
-        <v>4.582630538149784</v>
+        <v>4.596505375157689</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.497520885018228</v>
+        <v>-3.513331015770633</v>
       </c>
       <c r="G33" t="n">
-        <v>1.838677478115794</v>
+        <v>1.840869010300248</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.189517353518405</v>
       </c>
       <c r="E34" t="n">
-        <v>4.252704931095237</v>
+        <v>4.264469998611779</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.388453832579257</v>
+        <v>-3.39968233242239</v>
       </c>
       <c r="G34" t="n">
-        <v>1.716313767712918</v>
+        <v>1.715459639579736</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.078556472444823</v>
       </c>
       <c r="E35" t="n">
-        <v>3.908246005343784</v>
+        <v>3.920703135655417</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.270748405610425</v>
+        <v>-3.281238121119558</v>
       </c>
       <c r="G35" t="n">
-        <v>1.600318787082585</v>
+        <v>1.602516159459403</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9736188634422583</v>
       </c>
       <c r="E36" t="n">
-        <v>3.571912247218238</v>
+        <v>3.58552573561787</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.144596600435686</v>
+        <v>-3.156336117110638</v>
       </c>
       <c r="G36" t="n">
-        <v>1.456822340611896</v>
+        <v>1.45647484916626</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8752135134021767</v>
       </c>
       <c r="E37" t="n">
-        <v>3.226956905115876</v>
+        <v>3.234838244710601</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.010526224439904</v>
+        <v>-3.015458996915039</v>
       </c>
       <c r="G37" t="n">
-        <v>1.32639186450675</v>
+        <v>1.325625339259022</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7829124614973344</v>
       </c>
       <c r="E38" t="n">
-        <v>2.865894312474609</v>
+        <v>2.876460680508515</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.957621381865827</v>
+        <v>-2.959884456406736</v>
       </c>
       <c r="G38" t="n">
-        <v>1.18029069224188</v>
+        <v>1.179738794063516</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6959739842468469</v>
       </c>
       <c r="E39" t="n">
-        <v>2.524272260163792</v>
+        <v>2.532214921778335</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.818034214158547</v>
+        <v>-2.820495125215773</v>
       </c>
       <c r="G39" t="n">
-        <v>1.078475698670452</v>
+        <v>1.079201342571634</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6142690768597218</v>
       </c>
       <c r="E40" t="n">
-        <v>2.208412756417058</v>
+        <v>2.214867629026966</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.702213709275078</v>
+        <v>-2.70337444750735</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9587006535327575</v>
+        <v>0.958899220073121</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5377219868284074</v>
       </c>
       <c r="E41" t="n">
-        <v>1.875258983033511</v>
+        <v>1.881890521462419</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.573559381672522</v>
+        <v>-2.574262394828294</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8363544637069721</v>
+        <v>0.836996884866972</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4657651023347928</v>
       </c>
       <c r="E42" t="n">
-        <v>1.544292361690146</v>
+        <v>1.550218696891144</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.507196545820494</v>
+        <v>-2.509843613009311</v>
       </c>
       <c r="G42" t="n">
-        <v>0.719217725469549</v>
+        <v>0.7208719599565486</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3975470996552578</v>
       </c>
       <c r="E43" t="n">
-        <v>1.278724214434762</v>
+        <v>1.285398094258306</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.427828331598697</v>
+        <v>-2.429432924450606</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6565904226581113</v>
+        <v>0.656787529150384</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3325886628345607</v>
       </c>
       <c r="E44" t="n">
-        <v>1.008343748671744</v>
+        <v>1.017413567412469</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.315473980883045</v>
+        <v>-2.3146782546735</v>
       </c>
       <c r="G44" t="n">
-        <v>0.548316176332504</v>
+        <v>0.5492330865335947</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2702825564661109</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7850965553794405</v>
+        <v>0.7978880367038915</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.270873891850057</v>
+        <v>-2.270280382301103</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4419049513708962</v>
+        <v>0.4425254718095324</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2114047527887313</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5500565536568671</v>
+        <v>0.5635955796038635</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.1789244432289</v>
+        <v>-2.179480721551536</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3723234395024603</v>
+        <v>0.3759779398740048</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1555884797785708</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3513790496383751</v>
+        <v>0.3649385162586442</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.087085228238606</v>
+        <v>-2.09067402644606</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2914674362760275</v>
+        <v>0.2951803385712083</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1030345510452704</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2311601498810437</v>
+        <v>0.2459562772343125</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.983264128590271</v>
+        <v>-1.985948427005406</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2008729122832336</v>
+        <v>0.2064444557981412</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.05405888590636897</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1039768207300779</v>
+        <v>0.1171318540291652</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.882828880464752</v>
+        <v>-1.887971169840933</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1492718926543384</v>
+        <v>0.1538491434193372</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.008755203121821783</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.001042978400893942</v>
+        <v>0.0119718902814662</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.797162018778775</v>
+        <v>-1.804016944565592</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08242505086017456</v>
+        <v>0.08762866225617316</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.03213308816570014</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.08999932843568824</v>
+        <v>-0.07892194356996395</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.666741763010265</v>
+        <v>-1.674586601402717</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02261418081609971</v>
+        <v>0.03025315242773402</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.06861978394583367</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1901600875201159</v>
+        <v>-0.1848206916516628</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.544881769198752</v>
+        <v>-1.554782355303204</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.0119626780728001</v>
+        <v>-0.007934405389983001</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1009688384509543</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.309311692122993</v>
+        <v>-0.3055900295392667</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.432881480145146</v>
+        <v>-1.441635928498234</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07851459015260041</v>
+        <v>-0.07572005810660117</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1292209022842666</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3430519434558021</v>
+        <v>-0.3396587916925303</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.361812179272074</v>
+        <v>-1.369862884445345</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1425727400931287</v>
+        <v>-0.1397796680952203</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1539263252116201</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4707900908813132</v>
+        <v>-0.4684072923969503</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.315281906662905</v>
+        <v>-1.325883315850993</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1497255156904904</v>
+        <v>-0.1509096146922173</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1760980917467689</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5476032209440199</v>
+        <v>-0.5494312011538376</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.233745521026108</v>
+        <v>-1.238259989723198</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2005016081480222</v>
+        <v>-0.2002694605015677</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1965069845871048</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6462119489078116</v>
+        <v>-0.6504563087080832</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.192347317456483</v>
+        <v>-1.1973874034663</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2287403982742874</v>
+        <v>-0.2308355672847413</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2159887502021709</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6670599755978969</v>
+        <v>-0.6736871338825315</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.153175687225494</v>
+        <v>-1.156589279662038</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2628252209565509</v>
+        <v>-0.2655394503575502</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2346634281681428</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7644305827805981</v>
+        <v>-0.7681507853162334</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.13888619655977</v>
+        <v>-1.143450306891951</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.315659981222264</v>
+        <v>-0.3180456998028088</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2524394569536351</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8317241992905799</v>
+        <v>-0.834010634600943</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.100475251384144</v>
+        <v>-1.102395214623689</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3487271503851642</v>
+        <v>-0.3521451229659815</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2690461110724365</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9611355618282725</v>
+        <v>-0.9658383767290895</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.089716157002238</v>
+        <v>-1.094623378635782</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3924366100826979</v>
+        <v>-0.3951902607821517</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2840116398522716</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.080973389033877</v>
+        <v>-1.088159745737329</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.089177399256693</v>
+        <v>-1.094490514259509</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4327426976803235</v>
+        <v>-0.4376075779192313</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2972305960976436</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.142130423417769</v>
+        <v>-1.147170509427586</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.128144622754955</v>
+        <v>-1.133803769155317</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4919491078147621</v>
+        <v>-0.4973177046450334</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3086503350020227</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.236523992543108</v>
+        <v>-1.243562884389378</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.156418454035402</v>
+        <v>-1.162829525202582</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5212201519412997</v>
+        <v>-0.5252148435180259</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.318544943098753</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.364530788817346</v>
+        <v>-1.375979025898161</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.116147407591958</v>
+        <v>-1.12405648810041</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5463811606919293</v>
+        <v>-0.5501845859687465</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3273671147678571</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.424068629868421</v>
+        <v>-1.435138714493691</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.193630699728392</v>
+        <v>-1.203502084871026</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6011198236681874</v>
+        <v>-0.6048487864923682</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3354229421165403</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.524498037801576</v>
+        <v>-1.534347522222846</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.284799022620913</v>
+        <v>-1.294702528821547</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6479844472901748</v>
+        <v>-0.6491335051377199</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3428738909614872</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.552894513121659</v>
+        <v>-1.557912698410112</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.35468714458844</v>
+        <v>-1.36487390011871</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6713846380431685</v>
+        <v>-0.6727337224791681</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3501181767809348</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.620722507232914</v>
+        <v>-1.623081944947822</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.436538900612872</v>
+        <v>-1.447376837591687</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6676717357479877</v>
+        <v>-0.666994273433806</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3573850559085299</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.67729061046708</v>
+        <v>-1.67767606316308</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.512705229371306</v>
+        <v>-1.521878711526486</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6919435752112538</v>
+        <v>-0.6924253910812538</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3646897084926086</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.708594041536163</v>
+        <v>-1.712067495944434</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.624137559717549</v>
+        <v>-1.63337820408491</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7319503529502431</v>
+        <v>-0.7344733160513334</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3719454318444765</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.68974190058635</v>
+        <v>-1.691504178632076</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.717415652101433</v>
+        <v>-1.728109044319248</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7550556139888733</v>
+        <v>-0.7561462699127821</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.378899108790154</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.67875211860608</v>
+        <v>-1.680768445019625</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.770520521263964</v>
+        <v>-1.779870669238144</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7780411510840489</v>
+        <v>-0.7767344080426857</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3849795487444634</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.628767372213821</v>
+        <v>-1.631777991377274</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.844464656828035</v>
+        <v>-1.85091514929367</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7743282487888681</v>
+        <v>-0.7750246917282315</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3895352762589877</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.541024322142571</v>
+        <v>-1.543328278030025</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.949047901579825</v>
+        <v>-1.952386301539688</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7779360276215035</v>
+        <v>-0.7777257806964126</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3916673352005432</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.424694990499421</v>
+        <v>-1.425265869302966</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.003737652945038</v>
+        <v>-2.004545789563356</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.765805948082234</v>
+        <v>-0.7641765344127799</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3908084666844393</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.290885963111911</v>
+        <v>-1.28874699265873</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.05441738222857</v>
+        <v>-2.056322744987206</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7532874957507829</v>
+        <v>-0.7508696561122381</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3863423656460112</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.111424152017868</v>
+        <v>-1.10426115608387</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.083073016084789</v>
+        <v>-2.081592527320608</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7271526349235171</v>
+        <v>-0.7245376887926996</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3780449608857678</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9536498952661836</v>
+        <v>-0.9410803412515506</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.079517068959381</v>
+        <v>-2.078836686549018</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6718649938650775</v>
+        <v>-0.6693537111487144</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3652230337896932</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.7108015563534307</v>
+        <v>-0.6992189948482519</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.116808887273326</v>
+        <v>-2.112346250283463</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6109751482818211</v>
+        <v>-0.6118599374249117</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3474668090433514</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4523818045511364</v>
+        <v>-0.4421658480590482</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.119874988264234</v>
+        <v>-2.114039176044872</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5171466177676645</v>
+        <v>-0.517586092243028</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3249735047765792</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1589135983265788</v>
+        <v>-0.1547553813636708</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.104932126077829</v>
+        <v>-2.10033078451933</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4476921300831376</v>
+        <v>-0.4492996430312281</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2983962914715219</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1442376468368852</v>
+        <v>0.1440580609217035</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.035831700055347</v>
+        <v>-2.037086611389483</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3321293236877141</v>
+        <v>-0.3354961945853496</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2685127046831453</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4917480730983373</v>
+        <v>0.4868496117533387</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.977431966491136</v>
+        <v>-1.97968774079159</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2518660999861903</v>
+        <v>-0.2546168305894622</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2359928376534152</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7996152735954365</v>
+        <v>0.7909192271659843</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.904923788224474</v>
+        <v>-1.907989159191336</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1772269815308466</v>
+        <v>-0.1809325835855729</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.201457185655568</v>
       </c>
       <c r="E86" t="n">
-        <v>1.115372573975806</v>
+        <v>1.106848813221081</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.853671720089306</v>
+        <v>-1.859267354397713</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1053984556505023</v>
+        <v>-0.1058656710395931</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1656893095669201</v>
       </c>
       <c r="E87" t="n">
-        <v>1.358467661015923</v>
+        <v>1.353110744570379</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.675302024967263</v>
+        <v>-1.687170755898259</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05823890231415131</v>
+        <v>-0.05949454367233279</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1296917790301595</v>
       </c>
       <c r="E88" t="n">
-        <v>1.583091679657953</v>
+        <v>1.57644992089241</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.491966706288039</v>
+        <v>-1.50729575119449</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01050746204628478</v>
+        <v>0.01007236771519398</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.09457177896054234</v>
       </c>
       <c r="E89" t="n">
-        <v>1.772788427869266</v>
+        <v>1.762636713493178</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.254887017382466</v>
+        <v>-1.27785357385246</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06688283893245145</v>
+        <v>0.06545199180336093</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.06108484643179812</v>
       </c>
       <c r="E90" t="n">
-        <v>1.95605950443249</v>
+        <v>1.943948405518402</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.023478155261983</v>
+        <v>-1.049827643158612</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09870020692953382</v>
+        <v>0.09806946615426126</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.02995387892101621</v>
       </c>
       <c r="E91" t="n">
-        <v>2.14202436972344</v>
+        <v>2.126820888952807</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7974919117511347</v>
+        <v>-0.8260957139001269</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0819811962405383</v>
+        <v>0.08124387195462941</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.001685934844704557</v>
       </c>
       <c r="E92" t="n">
-        <v>2.257541914628045</v>
+        <v>2.244232116231321</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5967323791550068</v>
+        <v>-0.6260472247242715</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09174745792062659</v>
+        <v>0.09326152779089891</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02278603226703998</v>
       </c>
       <c r="E93" t="n">
-        <v>2.36303330929238</v>
+        <v>2.347647322510384</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3468480684921647</v>
+        <v>-0.3777748071537928</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04191747662600361</v>
+        <v>0.0445163622278211</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04165383003352751</v>
       </c>
       <c r="E94" t="n">
-        <v>2.381177326918103</v>
+        <v>2.368215019967015</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.204982495739021</v>
+        <v>-0.2358114111785582</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007085109321194784</v>
+        <v>0.009142317081285141</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.05355383747011828</v>
       </c>
       <c r="E95" t="n">
-        <v>2.333616260356752</v>
+        <v>2.324377076037482</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.04299892034124631</v>
+        <v>-0.07026677848705717</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02919270559361365</v>
+        <v>-0.02777645894543222</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.05771359173258813</v>
       </c>
       <c r="E96" t="n">
-        <v>2.233251094539597</v>
+        <v>2.226329006540599</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07722581960844868</v>
+        <v>0.04963091069027427</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07244371019060204</v>
+        <v>-0.06888557299305754</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.05488463823059584</v>
       </c>
       <c r="E97" t="n">
-        <v>2.087193723717454</v>
+        <v>2.077390960835094</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1453429032417031</v>
+        <v>0.1230027074027091</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1284161138036779</v>
+        <v>-0.12392062573177</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.04694214213572621</v>
       </c>
       <c r="E98" t="n">
-        <v>1.892760579499234</v>
+        <v>1.884569709709236</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2086651889444134</v>
+        <v>0.1902408420852365</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1403841280048565</v>
+        <v>-0.1398030288646749</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.03561656859654638</v>
       </c>
       <c r="E99" t="n">
-        <v>1.695335796742741</v>
+        <v>1.68736393416638</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2167231943581385</v>
+        <v>0.2011955829113245</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1336868874118583</v>
+        <v>-0.1343278485237673</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.02342074849343167</v>
       </c>
       <c r="E100" t="n">
-        <v>1.539313597700147</v>
+        <v>1.527703295281241</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2380763976876782</v>
+        <v>0.2261974464200451</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1308806749811318</v>
+        <v>-0.1295651716512231</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.01222250969440395</v>
       </c>
       <c r="E101" t="n">
-        <v>1.398243751156548</v>
+        <v>1.383879798038189</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2268004462815903</v>
+        <v>0.2187555813006834</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1102253746390464</v>
+        <v>-0.1107013503166827</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.001252191376691681</v>
       </c>
       <c r="E102" t="n">
-        <v>1.220722343975323</v>
+        <v>1.200453956377329</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2405497191536775</v>
+        <v>0.233554628750134</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1417186119599471</v>
+        <v>-0.142663263074765</v>
       </c>
     </row>
   </sheetData>
